--- a/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
+++ b/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\OneDrive\桌面\盟立\ASE k24\DemoLine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedule" sheetId="2" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -22,45 +27,40 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>OHT01_EQ1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OHT01_EQ2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OHT01_T01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OHT01_T02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="細明體"/>
       <family val="3"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -86,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -149,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -184,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -361,7 +361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -369,21 +369,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
+    <col min="2" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="13.69921875" customWidth="1"/>
+    <col min="8" max="9" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>100101</v>
       </c>
@@ -393,20 +393,23 @@
       <c r="D1" s="1">
         <v>200101</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
+      <c r="E1" s="1">
+        <v>200102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>100101</v>
       </c>
@@ -431,8 +434,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100102</v>
       </c>
@@ -457,8 +463,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>200101</v>
       </c>
@@ -483,10 +492,13 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>200102</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -509,10 +521,13 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -535,64 +550,100 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A6">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
+++ b/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin\OneDrive\桌面\盟立\ASE k24\DemoLine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -184,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -361,7 +356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -372,7 +367,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -385,16 +380,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
-        <v>100101</v>
+        <v>200101</v>
       </c>
       <c r="C1" s="1">
-        <v>100102</v>
+        <v>200102</v>
       </c>
       <c r="D1" s="1">
-        <v>200101</v>
+        <v>200103</v>
       </c>
       <c r="E1" s="1">
-        <v>200102</v>
+        <v>200104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -411,118 +406,118 @@
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>100101</v>
+        <v>200101</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>100102</v>
+        <v>200102</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>200101</v>
+        <v>200103</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>200102</v>
+        <v>200104</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.3">
@@ -530,28 +525,28 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.3">
@@ -559,28 +554,28 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.3">
@@ -588,28 +583,28 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.3">
@@ -617,25 +612,25 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>

--- a/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
+++ b/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
@@ -356,7 +356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -367,18 +367,18 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="5" width="8" customWidth="1"/>
-    <col min="6" max="7" width="13.69921875" customWidth="1"/>
-    <col min="8" max="9" width="13.19921875" customWidth="1"/>
+    <col min="6" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>200101</v>
       </c>
@@ -404,7 +404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>200101</v>
       </c>
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -433,27 +433,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>200102</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,21 +462,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>200103</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -491,18 +491,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>200104</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,21 +549,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>

--- a/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
+++ b/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
@@ -356,7 +356,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -367,29 +367,29 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
     <col min="2" max="5" width="8" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="6" max="7" width="13.69921875" customWidth="1"/>
+    <col min="8" max="9" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
-        <v>200101</v>
+        <v>100101</v>
       </c>
       <c r="C1" s="1">
-        <v>200102</v>
+        <v>100102</v>
       </c>
       <c r="D1" s="1">
-        <v>200103</v>
+        <v>100103</v>
       </c>
       <c r="E1" s="1">
-        <v>200104</v>
+        <v>100104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -404,9 +404,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>200101</v>
+        <v>100101</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -433,9 +433,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>200102</v>
+        <v>100102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -462,9 +462,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>200103</v>
+        <v>100103</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -491,9 +491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>200104</v>
+        <v>100104</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>

--- a/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
+++ b/OverheadHoistBuffer_ASE_K24/BCWinForm/Config/Hsinchu_2F/CSTTranSchedule.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,25 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
-    <t>OHT01_EQ1</t>
+    <t>A01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OHT01_EQ2</t>
+    <t>A02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OHT01_T01</t>
+    <t>A04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OHT01_T02</t>
+    <t>A03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,145 +364,113 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="5" width="8" customWidth="1"/>
-    <col min="6" max="7" width="13.69921875" customWidth="1"/>
-    <col min="8" max="9" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="6" width="8" customWidth="1"/>
+    <col min="7" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="10" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
-        <v>100101</v>
-      </c>
-      <c r="C1" s="1">
-        <v>100102</v>
-      </c>
-      <c r="D1" s="1">
-        <v>100103</v>
-      </c>
-      <c r="E1" s="1">
-        <v>100104</v>
+    <row r="1" spans="1:10" ht="16.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.2">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>100101</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>100102</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>100103</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>100104</v>
-      </c>
       <c r="B5">
         <v>1</v>
       </c>
@@ -508,133 +484,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.2">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
